--- a/data/SuppTable2__Amplicon_Primer_details.xlsx
+++ b/data/SuppTable2__Amplicon_Primer_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mb29/Papers/AmpliSeq_Treponema_paper_2024/Github/TP-Phylo-Plex_paper_2025/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDD339D3-2E48-EB4D-BCC5-9139C20C9EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65915F5-04F9-3645-912D-D6C34EF65722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36000" yWindow="1980" windowWidth="28040" windowHeight="16520" xr2:uid="{E63FAB31-C2DA-B04A-9952-B67740A27746}"/>
+    <workbookView xWindow="7020" yWindow="500" windowWidth="28800" windowHeight="14520" xr2:uid="{E63FAB31-C2DA-B04A-9952-B67740A27746}"/>
   </bookViews>
   <sheets>
     <sheet name="SuppTable1__Amplicon_Primer_det" sheetId="1" r:id="rId1"/>
